--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kacper\Desktop\bd ex1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4C6B8A-7C5D-4A63-938C-C3F8785FA866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2AB7B2-1DD0-4D99-BA85-3C0AD864EB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4649D1BD-1714-462F-9682-F8D48D7A5260}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="108">
   <si>
     <t>dataset</t>
   </si>
@@ -354,13 +354,19 @@
   </si>
   <si>
     <t>18MB</t>
+  </si>
+  <si>
+    <t>-block size: 65</t>
+  </si>
+  <si>
+    <t>-block size: 63</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +377,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -507,7 +519,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$88</c:f>
+              <c:f>Sheet1!$B$91</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -530,7 +542,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$88:$A$89</c:f>
+              <c:f>Sheet1!$A$91:$A$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -545,7 +557,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$88:$C$89</c:f>
+              <c:f>Sheet1!$C$91:$C$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -570,7 +582,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$83</c:f>
+              <c:f>Sheet1!$B$85</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -593,7 +605,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$83:$A$84</c:f>
+              <c:f>Sheet1!$A$85:$A$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -918,10 +930,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$20:$A$22</c:f>
+              <c:f>Sheet1!$A$17:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>128</c:v>
                 </c:pt>
@@ -929,6 +941,9 @@
                   <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
@@ -936,10 +951,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$17:$C$19</c:f>
+              <c:f>Sheet1!$C$17:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.2</c:v>
                 </c:pt>
@@ -947,6 +962,9 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
@@ -955,7 +973,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DF57-4D7A-8ACF-D1EE4F5410E6}"/>
+              <c16:uniqueId val="{00000000-9747-41DA-8769-C269721234E8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -964,7 +982,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$20</c:f>
+              <c:f>Sheet1!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -987,10 +1005,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$20:$C$22</c:f>
+              <c:f>Sheet1!$C$21:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -998,6 +1016,9 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>812</c:v>
                 </c:pt>
               </c:numCache>
@@ -1006,7 +1027,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DF57-4D7A-8ACF-D1EE4F5410E6}"/>
+              <c16:uniqueId val="{00000001-9747-41DA-8769-C269721234E8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1015,7 +1036,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$23</c:f>
+              <c:f>Sheet1!$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1038,10 +1059,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$C$23:$C$24,Sheet1!$C$26)</c:f>
+              <c:f>Sheet1!$C$25:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -1049,6 +1070,9 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2218</c:v>
                 </c:pt>
               </c:numCache>
@@ -1057,7 +1081,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DF57-4D7A-8ACF-D1EE4F5410E6}"/>
+              <c16:uniqueId val="{00000002-9747-41DA-8769-C269721234E8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1070,11 +1094,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1930840432"/>
-        <c:axId val="1930840912"/>
+        <c:axId val="80584383"/>
+        <c:axId val="80577183"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1930840432"/>
+        <c:axId val="80584383"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1117,7 +1141,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1930840912"/>
+        <c:crossAx val="80577183"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1125,7 +1149,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1930840912"/>
+        <c:axId val="80577183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1176,7 +1200,1415 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1930840432"/>
+        <c:crossAx val="80584383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Python</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>native</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$84:$A$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$84:$C$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F797-41DD-941A-3AD4A948ADBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>blocking</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$90:$C$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4505</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F797-41DD-941A-3AD4A948ADBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$93</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>loop unrolling</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$93:$C$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8057</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F797-41DD-941A-3AD4A948ADBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="80578623"/>
+        <c:axId val="80581023"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="80578623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80581023"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="80581023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80578623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Java Sparse</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>native</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$17:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$17:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D6F6-4539-A256-354066F0AFE1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>coordinate 0% zeros</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$35:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3909</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D6F6-4539-A256-354066F0AFE1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>coordinate 50% zeros</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$37:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>693</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D6F6-4539-A256-354066F0AFE1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>coordinate 80% zeros</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$39:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D6F6-4539-A256-354066F0AFE1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>coordinate 95% zeros</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$41:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D6F6-4539-A256-354066F0AFE1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="45370671"/>
+        <c:axId val="45374511"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="45370671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="45374511"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="45374511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="45370671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Python sparse</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>native</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$85:$A$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$85:$C$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6026-484E-9A7B-30628503A7B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>coordinate 80% zeros</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$104:$C$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6026-484E-9A7B-30628503A7B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>coordinate 95% zeros</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$106:$C$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>352</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6026-484E-9A7B-30628503A7B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>coordinate 50% zeros</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$102:$C$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1664</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25893</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6026-484E-9A7B-30628503A7B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="84100943"/>
+        <c:axId val="84101903"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="84100943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="84101903"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="84101903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="84100943"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1343,6 +2775,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1860,6 +3412,1554 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2381,13 +5481,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2416,22 +5516,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE03CBF4-6689-5C67-EEC2-93C691A488BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A64F7A87-7DDB-5115-BB82-66E7370A862A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2444,6 +5544,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E25D004-0881-B4BB-108B-5229A124CD8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>346710</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C16AE66-C6E9-1202-6D4E-CC7E9935446C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F5C39B9-0946-165A-6941-99162637572A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2769,10 +5977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE11081C-231A-4E48-87CE-820814A42AC1}">
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3011,33 +6219,30 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1024</v>
+        <v>512</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
       <c r="C19">
-        <v>2019</v>
+        <v>173</v>
       </c>
       <c r="E19" s="4">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>128</v>
+        <v>1024</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>32</v>
+        <v>2019</v>
       </c>
       <c r="E20" s="4">
         <v>8.5000000000000006E-2</v>
@@ -3045,20 +6250,16 @@
       <c r="F20" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="6">
-        <f>C17/C20</f>
-        <v>1.2</v>
-      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>32</v>
@@ -3070,19 +6271,19 @@
         <v>85</v>
       </c>
       <c r="G21" s="6">
-        <f>C18/C21</f>
-        <v>1.4444444444444444</v>
+        <f>C17/C21</f>
+        <v>1.2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22">
-        <v>812</v>
+        <v>9</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>32</v>
@@ -3094,269 +6295,275 @@
         <v>85</v>
       </c>
       <c r="G22" s="6">
-        <f>C19/C22</f>
-        <v>2.4864532019704435</v>
+        <f>C18/C22</f>
+        <v>1.4444444444444444</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="C23">
-        <v>12</v>
-      </c>
-      <c r="D23" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E23" s="4">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="F23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G23" s="6">
-        <f>C17/C23</f>
-        <v>9.9999999999999992E-2</v>
+        <f>C19/C23</f>
+        <v>1.9438202247191012</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>29</v>
-      </c>
-      <c r="D24" s="1"/>
+        <v>812</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E24" s="4">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="F24" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="G24" s="6">
-        <f>C18/C24</f>
-        <v>0.44827586206896552</v>
+        <f>C20/C24</f>
+        <v>2.4864532019704435</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="B25" t="s">
         <v>103</v>
       </c>
       <c r="C25">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="4">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="F25" t="s">
-        <v>105</v>
-      </c>
-      <c r="G25" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="G25" s="6">
+        <f>C17/C25</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s">
         <v>103</v>
       </c>
       <c r="C26">
-        <v>2218</v>
+        <v>29</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="4">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="F26" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="G26" s="6">
-        <f>C19/C26</f>
-        <v>0.91027953110910731</v>
+        <f>C18/C26</f>
+        <v>0.44827586206896552</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="C27">
-        <v>1.5</v>
+        <v>198</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="4">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="F27" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="G27" s="6">
-        <f>C17/C27</f>
-        <v>0.79999999999999993</v>
+        <f>C19/C27</f>
+        <v>0.8737373737373737</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>2218</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="4">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="F28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G28" s="6">
-        <f>C18/C28</f>
-        <v>0.8666666666666667</v>
+        <f>C20/C28</f>
+        <v>0.91027953110910731</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>1024</v>
+        <v>128</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
       <c r="C29">
-        <v>1862</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="D29" s="1"/>
       <c r="E29" s="4">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="F29" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G29" s="6">
-        <f>C19/C29</f>
-        <v>1.0843179377013963</v>
+        <f>C17/C29</f>
+        <v>0.79999999999999993</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30">
-        <v>1.5</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D30" s="1"/>
       <c r="E30" s="4">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="F30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G30" s="6">
-        <f>C17/C30</f>
-        <v>0.79999999999999993</v>
+        <f>C18/C30</f>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31">
-        <v>15</v>
+        <v>1862</v>
       </c>
       <c r="E31" s="4">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="F31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G31" s="6">
-        <f>C18/C31</f>
-        <v>0.8666666666666667</v>
+        <f>C20/C31</f>
+        <v>1.0843179377013963</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>1024</v>
+        <v>128</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32">
-        <v>1944</v>
+        <v>1.5</v>
       </c>
       <c r="E32" s="4">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="F32" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G32" s="6">
-        <f>C19/C32</f>
-        <v>1.0385802469135803</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <f>C17/C32</f>
+        <v>0.79999999999999993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C33">
-        <v>175</v>
+        <v>15</v>
       </c>
       <c r="E33" s="4">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>101</v>
+      <c r="F33" t="s">
+        <v>86</v>
       </c>
       <c r="G33" s="6">
-        <f>C17/C33</f>
-        <v>6.8571428571428568E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f>C18/C33</f>
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C34">
-        <v>3909</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>34</v>
+        <v>1944</v>
       </c>
       <c r="E34" s="4">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>88</v>
+      <c r="F34" t="s">
+        <v>84</v>
       </c>
       <c r="G34" s="6">
-        <f>C18/C34</f>
-        <v>3.3256587362496801E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f>C20/C34</f>
+        <v>1.0385802469135803</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>128</v>
       </c>
@@ -3364,10 +6571,7 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>39</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>57</v>
+        <v>175</v>
       </c>
       <c r="E35" s="4">
         <v>8.5000000000000006E-2</v>
@@ -3377,7 +6581,7 @@
       </c>
       <c r="G35" s="6">
         <f>C17/C35</f>
-        <v>3.0769230769230767E-2</v>
+        <v>6.8571428571428568E-3</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3388,20 +6592,20 @@
         <v>33</v>
       </c>
       <c r="C36">
-        <v>693</v>
+        <v>3909</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="E36" s="4">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G36" s="6">
         <f>C18/C36</f>
-        <v>1.875901875901876E-2</v>
+        <v>3.3256587362496801E-3</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3412,10 +6616,10 @@
         <v>33</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E37" s="4">
         <v>8.5000000000000006E-2</v>
@@ -3425,7 +6629,7 @@
       </c>
       <c r="G37" s="6">
         <f>C17/C37</f>
-        <v>0.17142857142857143</v>
+        <v>3.0769230769230767E-2</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3436,20 +6640,20 @@
         <v>33</v>
       </c>
       <c r="C38">
-        <v>101</v>
+        <v>693</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E38" s="4">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G38" s="6">
         <f>C18/C38</f>
-        <v>0.12871287128712872</v>
+        <v>1.875901875901876E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3460,10 +6664,10 @@
         <v>33</v>
       </c>
       <c r="C39">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="E39" s="4">
         <v>8.5000000000000006E-2</v>
@@ -3473,7 +6677,7 @@
       </c>
       <c r="G39" s="6">
         <f>C17/C39</f>
-        <v>2.4</v>
+        <v>0.17142857142857143</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3484,10 +6688,10 @@
         <v>33</v>
       </c>
       <c r="C40">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="E40" s="4">
         <v>8.5000000000000006E-2</v>
@@ -3497,7 +6701,7 @@
       </c>
       <c r="G40" s="6">
         <f>C18/C40</f>
-        <v>1.8571428571428572</v>
+        <v>0.12871287128712872</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3505,23 +6709,23 @@
         <v>128</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C41">
-        <v>0.9</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0.3</v>
+        <v>0.5</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="4">
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G41" s="6">
         <f>C17/C41</f>
-        <v>1.3333333333333333</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3529,34 +6733,34 @@
         <v>256</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C42">
-        <v>8</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0.3</v>
+        <v>7</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" s="4">
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G42" s="6">
         <f>C18/C42</f>
-        <v>1.625</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1.8571428571428572</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>1024</v>
+        <v>128</v>
       </c>
       <c r="B43" t="s">
         <v>35</v>
       </c>
       <c r="C43">
-        <v>856</v>
+        <v>0.9</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>19</v>
@@ -3565,70 +6769,70 @@
         <v>0.3</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G43" s="6">
-        <f>C19/C43</f>
-        <v>2.3586448598130842</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+        <f>C17/C43</f>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="B44" t="s">
         <v>35</v>
       </c>
       <c r="C44">
-        <v>0.65</v>
+        <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" t="s">
-        <v>93</v>
+        <v>19</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.3</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G44" s="6">
-        <f>C17/C44</f>
-        <v>1.846153846153846</v>
+        <f>C18/C44</f>
+        <v>1.625</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="B45" t="s">
         <v>35</v>
       </c>
       <c r="C45">
-        <v>5</v>
+        <v>856</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" t="s">
-        <v>93</v>
+        <v>19</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.3</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G45" s="6">
-        <f>C18/C45</f>
-        <v>2.6</v>
+        <f>C20/C45</f>
+        <v>2.3586448598130842</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>1024</v>
+        <v>128</v>
       </c>
       <c r="B46" t="s">
         <v>35</v>
       </c>
       <c r="C46">
-        <v>652</v>
+        <v>0.65</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>17</v>
@@ -3637,70 +6841,70 @@
         <v>93</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G46" s="6">
-        <f>C19/C46</f>
-        <v>3.0966257668711656</v>
+        <f>C17/C46</f>
+        <v>1.846153846153846</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="B47" t="s">
         <v>35</v>
       </c>
       <c r="C47">
-        <v>0.75</v>
+        <v>5</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G47" s="6">
-        <f>C17/C47</f>
-        <v>1.5999999999999999</v>
+        <f>C18/C47</f>
+        <v>2.6</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="B48" t="s">
         <v>35</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>652</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G48" s="6">
-        <f>C18/C48</f>
-        <v>3.25</v>
+        <f>C20/C48</f>
+        <v>3.0966257668711656</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>1024</v>
+        <v>128</v>
       </c>
       <c r="B49" t="s">
         <v>35</v>
       </c>
       <c r="C49">
-        <v>627</v>
+        <v>0.75</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>21</v>
@@ -3709,56 +6913,82 @@
         <v>91</v>
       </c>
       <c r="F49" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G49" s="6">
+        <f>C17/C49</f>
+        <v>1.5999999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>256</v>
+      </c>
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" t="s">
+        <v>91</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G50" s="6">
+        <f>C18/C50</f>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1024</v>
+      </c>
+      <c r="B51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51">
+        <v>627</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" t="s">
+        <v>91</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G49" s="6">
-        <f>C19/C49</f>
+      <c r="G51" s="6">
+        <f>C20/C51</f>
         <v>3.2200956937799043</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>75</v>
-      </c>
-      <c r="F51" s="5"/>
-    </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" t="s">
-        <v>30</v>
-      </c>
+      <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>36</v>
-      </c>
-      <c r="B53" t="s">
-        <v>37</v>
-      </c>
-      <c r="C53" t="s">
-        <v>39</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -3766,13 +6996,10 @@
         <v>36</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C55" t="s">
-        <v>41</v>
-      </c>
-      <c r="D55" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -3780,60 +7007,57 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C56" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B57" t="s">
         <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="D57" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C59" t="s">
-        <v>46</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>32</v>
@@ -3841,24 +7065,30 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -3866,10 +7096,10 @@
         <v>36</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -3877,10 +7107,10 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -3888,13 +7118,10 @@
         <v>36</v>
       </c>
       <c r="B65" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>54</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -3902,13 +7129,10 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>53</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -3919,10 +7143,10 @@
         <v>33</v>
       </c>
       <c r="C67" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -3933,10 +7157,10 @@
         <v>33</v>
       </c>
       <c r="C68" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -3947,10 +7171,10 @@
         <v>33</v>
       </c>
       <c r="C69" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -3961,10 +7185,10 @@
         <v>33</v>
       </c>
       <c r="C70" t="s">
-        <v>62</v>
-      </c>
-      <c r="D70" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -3972,13 +7196,13 @@
         <v>36</v>
       </c>
       <c r="B71" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C71" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -3986,13 +7210,13 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C72" t="s">
-        <v>70</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="D72" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -4003,10 +7227,10 @@
         <v>63</v>
       </c>
       <c r="C73" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -4017,10 +7241,10 @@
         <v>63</v>
       </c>
       <c r="C74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -4031,10 +7255,10 @@
         <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -4045,10 +7269,10 @@
         <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -4059,10 +7283,10 @@
         <v>63</v>
       </c>
       <c r="C77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -4073,83 +7297,77 @@
         <v>63</v>
       </c>
       <c r="C78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D78" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>36</v>
+      </c>
+      <c r="B79" t="s">
+        <v>63</v>
+      </c>
+      <c r="C79" t="s">
+        <v>69</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80" t="s">
+        <v>73</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>95</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B83" t="s">
         <v>29</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C83" t="s">
         <v>96</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D83" t="s">
         <v>30</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E83" t="s">
         <v>81</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F83" t="s">
         <v>82</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G83" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>64</v>
-      </c>
-      <c r="B82" t="s">
-        <v>37</v>
-      </c>
-      <c r="C82">
-        <v>103</v>
-      </c>
-      <c r="E82" s="4">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="F82" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>128</v>
-      </c>
-      <c r="B83" t="s">
-        <v>37</v>
-      </c>
-      <c r="C83">
-        <v>810</v>
-      </c>
-      <c r="E83" s="4">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="F83" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="B84" t="s">
         <v>37</v>
       </c>
       <c r="C84">
-        <v>7144</v>
+        <v>103</v>
       </c>
       <c r="E84" s="4">
         <v>8.3000000000000004E-2</v>
@@ -4163,13 +7381,13 @@
         <v>128</v>
       </c>
       <c r="B85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C85">
-        <v>4.2999999999999997E-2</v>
+        <v>810</v>
       </c>
       <c r="E85" s="4">
-        <v>0.16</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="F85" t="s">
         <v>94</v>
@@ -4180,13 +7398,13 @@
         <v>256</v>
       </c>
       <c r="B86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C86">
-        <v>0.19</v>
+        <v>7144</v>
       </c>
       <c r="E86" s="4">
-        <v>0.16</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="F86" t="s">
         <v>94</v>
@@ -4194,16 +7412,16 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>1024</v>
+        <v>128</v>
       </c>
       <c r="B87" t="s">
         <v>38</v>
       </c>
       <c r="C87">
-        <v>11</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="E87" s="4">
-        <v>0.44</v>
+        <v>0.16</v>
       </c>
       <c r="F87" t="s">
         <v>94</v>
@@ -4211,50 +7429,36 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C88">
-        <v>544</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>32</v>
+        <v>0.19</v>
       </c>
       <c r="E88" s="4">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="F88" t="s">
         <v>94</v>
       </c>
-      <c r="G88" s="6">
-        <f>C83/C88</f>
-        <v>1.4889705882352942</v>
-      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C89">
-        <v>4505</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E89" s="4">
-        <v>0.1</v>
+        <v>0.44</v>
       </c>
       <c r="F89" t="s">
         <v>94</v>
-      </c>
-      <c r="G89" s="6">
-        <f>C84/C89</f>
-        <v>1.5857935627081021</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -4262,12 +7466,14 @@
         <v>64</v>
       </c>
       <c r="B90" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="C90">
-        <v>125</v>
-      </c>
-      <c r="D90" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="E90" s="4">
         <v>0.1</v>
       </c>
@@ -4275,8 +7481,8 @@
         <v>94</v>
       </c>
       <c r="G90" s="6">
-        <f>C82/C90</f>
-        <v>0.82399999999999995</v>
+        <f>C84/C90</f>
+        <v>1.7166666666666666</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -4284,12 +7490,14 @@
         <v>128</v>
       </c>
       <c r="B91" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="C91">
-        <v>989</v>
-      </c>
-      <c r="D91" s="1"/>
+        <v>544</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E91" s="4">
         <v>0.1</v>
       </c>
@@ -4297,8 +7505,8 @@
         <v>94</v>
       </c>
       <c r="G91" s="6">
-        <f t="shared" ref="G91:G92" si="0">C83/C91</f>
-        <v>0.81900910010111228</v>
+        <f>C85/C91</f>
+        <v>1.4889705882352942</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -4306,12 +7514,14 @@
         <v>256</v>
       </c>
       <c r="B92" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="C92">
-        <v>8057</v>
-      </c>
-      <c r="D92" s="1"/>
+        <v>4505</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E92" s="4">
         <v>0.1</v>
       </c>
@@ -4319,20 +7529,21 @@
         <v>94</v>
       </c>
       <c r="G92" s="6">
-        <f t="shared" si="0"/>
-        <v>0.88668238798560262</v>
+        <f>C86/C92</f>
+        <v>1.5857935627081021</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="B93" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="C93">
-        <v>787</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D93" s="1"/>
       <c r="E93" s="4">
         <v>0.1</v>
       </c>
@@ -4340,20 +7551,21 @@
         <v>94</v>
       </c>
       <c r="G93" s="6">
-        <f>C83/C93</f>
-        <v>1.0292249047013977</v>
+        <f>C84/C93</f>
+        <v>0.82399999999999995</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="B94" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="C94">
-        <v>6552</v>
-      </c>
+        <v>989</v>
+      </c>
+      <c r="D94" s="1"/>
       <c r="E94" s="4">
         <v>0.1</v>
       </c>
@@ -4361,20 +7573,21 @@
         <v>94</v>
       </c>
       <c r="G94" s="6">
-        <f>C84/C94</f>
-        <v>1.0903540903540903</v>
+        <f>C85/C94</f>
+        <v>0.81900910010111228</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="B95" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="C95">
-        <v>772</v>
-      </c>
+        <v>8057</v>
+      </c>
+      <c r="D95" s="1"/>
       <c r="E95" s="4">
         <v>0.1</v>
       </c>
@@ -4382,19 +7595,19 @@
         <v>94</v>
       </c>
       <c r="G95" s="6">
-        <f>C83/C95</f>
-        <v>1.0492227979274611</v>
+        <f>C86/C95</f>
+        <v>0.88668238798560262</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="B96" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C96">
-        <v>6249</v>
+        <v>787</v>
       </c>
       <c r="E96" s="4">
         <v>0.1</v>
@@ -4403,94 +7616,85 @@
         <v>94</v>
       </c>
       <c r="G96" s="6">
-        <f>C84/C96</f>
-        <v>1.1432229156665066</v>
+        <f>C85/C96</f>
+        <v>1.0292249047013977</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="B97" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="C97">
-        <v>10710</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>55</v>
+        <v>6552</v>
       </c>
       <c r="E97" s="4">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F97" t="s">
         <v>94</v>
       </c>
       <c r="G97" s="6">
-        <f>C83/C97</f>
-        <v>7.5630252100840331E-2</v>
+        <f>C86/C97</f>
+        <v>1.0903540903540903</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="B98" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="C98">
-        <v>163734</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>55</v>
+        <v>772</v>
       </c>
       <c r="E98" s="4">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F98" t="s">
         <v>94</v>
       </c>
       <c r="G98" s="6">
-        <f>C84/C98</f>
-        <v>4.3631744170422759E-2</v>
+        <f>C85/C98</f>
+        <v>1.0492227979274611</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="B99" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="C99">
-        <v>1664</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>57</v>
+        <v>6249</v>
       </c>
       <c r="E99" s="4">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F99" t="s">
         <v>94</v>
       </c>
       <c r="G99" s="6">
-        <f>$C$83/C99</f>
-        <v>0.48677884615384615</v>
+        <f>C86/C99</f>
+        <v>1.1432229156665066</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="B100" t="s">
         <v>33</v>
       </c>
       <c r="C100">
-        <v>25893</v>
+        <v>10710</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E100" s="4">
         <v>0.09</v>
@@ -4499,22 +7703,22 @@
         <v>94</v>
       </c>
       <c r="G100" s="6">
-        <f>$C$84/C100</f>
-        <v>0.27590468466380874</v>
+        <f>C85/C100</f>
+        <v>7.5630252100840331E-2</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="B101" t="s">
         <v>33</v>
       </c>
       <c r="C101">
-        <v>386</v>
+        <v>163734</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E101" s="4">
         <v>0.09</v>
@@ -4523,22 +7727,22 @@
         <v>94</v>
       </c>
       <c r="G101" s="6">
-        <f t="shared" ref="G101" si="1">$C$83/C101</f>
-        <v>2.0984455958549222</v>
+        <f>C86/C101</f>
+        <v>4.3631744170422759E-2</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="B102" t="s">
         <v>33</v>
       </c>
       <c r="C102">
-        <v>6336</v>
-      </c>
-      <c r="D102" t="s">
-        <v>61</v>
+        <v>1664</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="E102" s="4">
         <v>0.09</v>
@@ -4547,279 +7751,400 @@
         <v>94</v>
       </c>
       <c r="G102" s="6">
-        <f t="shared" ref="G102" si="2">$C$84/C102</f>
-        <v>1.1275252525252526</v>
+        <f>$C$85/C102</f>
+        <v>0.48677884615384615</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="B103" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C103">
-        <v>809</v>
+        <v>25893</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E103" s="3">
+        <v>57</v>
+      </c>
+      <c r="E103" s="4">
         <v>0.09</v>
       </c>
       <c r="F103" t="s">
         <v>94</v>
       </c>
       <c r="G103" s="6">
-        <f t="shared" ref="G103" si="3">$C$83/C103</f>
-        <v>1.0012360939431397</v>
+        <f>$C$86/C103</f>
+        <v>0.27590468466380874</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="B104" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C104">
-        <v>6552</v>
+        <v>386</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E104" s="3">
+        <v>60</v>
+      </c>
+      <c r="E104" s="4">
         <v>0.09</v>
       </c>
       <c r="F104" t="s">
         <v>94</v>
       </c>
       <c r="G104" s="6">
-        <f t="shared" ref="G104" si="4">$C$84/C104</f>
-        <v>1.0903540903540903</v>
+        <f t="shared" ref="G104" si="0">$C$85/C104</f>
+        <v>2.0984455958549222</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="B105" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C105">
-        <v>810</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E105" s="3">
+        <v>6336</v>
+      </c>
+      <c r="D105" t="s">
+        <v>61</v>
+      </c>
+      <c r="E105" s="4">
         <v>0.09</v>
       </c>
       <c r="F105" t="s">
         <v>94</v>
       </c>
       <c r="G105" s="6">
-        <f t="shared" ref="G105" si="5">$C$83/C105</f>
-        <v>1</v>
+        <f t="shared" ref="G105:G107" si="1">$C$86/C105</f>
+        <v>1.1275252525252526</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="B106" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C106">
-        <v>6381</v>
+        <v>24</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E106" s="3">
+        <v>102</v>
+      </c>
+      <c r="E106" s="4">
         <v>0.09</v>
       </c>
       <c r="F106" t="s">
         <v>94</v>
       </c>
       <c r="G106" s="6">
-        <f t="shared" ref="G106" si="6">$C$84/C106</f>
-        <v>1.1195737345243693</v>
+        <f t="shared" si="1"/>
+        <v>297.66666666666669</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="B107" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C107">
-        <v>820</v>
+        <v>352</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E107" s="3">
-        <v>0.11</v>
+        <v>102</v>
+      </c>
+      <c r="E107" s="4">
+        <v>0.09</v>
       </c>
       <c r="F107" t="s">
         <v>94</v>
       </c>
       <c r="G107" s="6">
-        <f t="shared" ref="G107" si="7">$C$83/C107</f>
-        <v>0.98780487804878048</v>
+        <f t="shared" si="1"/>
+        <v>20.295454545454547</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="B108" t="s">
         <v>63</v>
       </c>
       <c r="C108">
-        <v>6411</v>
+        <v>809</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="E108" s="3">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="F108" t="s">
         <v>94</v>
       </c>
       <c r="G108" s="6">
-        <f t="shared" ref="G108" si="8">$C$84/C108</f>
-        <v>1.1143347371704881</v>
+        <f t="shared" ref="G108" si="2">$C$85/C108</f>
+        <v>1.0012360939431397</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="B109" t="s">
         <v>63</v>
       </c>
       <c r="C109">
-        <v>818</v>
+        <v>6552</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E109" s="3">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="F109" t="s">
         <v>94</v>
       </c>
       <c r="G109" s="6">
-        <f t="shared" ref="G109" si="9">$C$83/C109</f>
-        <v>0.99022004889975546</v>
+        <f t="shared" ref="G109" si="3">$C$86/C109</f>
+        <v>1.0903540903540903</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="B110" t="s">
         <v>63</v>
       </c>
       <c r="C110">
-        <v>6425</v>
+        <v>810</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="E110" s="3">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="F110" t="s">
         <v>94</v>
       </c>
       <c r="G110" s="6">
-        <f t="shared" ref="G110" si="10">$C$84/C110</f>
+        <f t="shared" ref="G110" si="4">$C$85/C110</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>256</v>
+      </c>
+      <c r="B111" t="s">
+        <v>63</v>
+      </c>
+      <c r="C111">
+        <v>6381</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="F111" t="s">
+        <v>94</v>
+      </c>
+      <c r="G111" s="6">
+        <f t="shared" ref="G111" si="5">$C$86/C111</f>
+        <v>1.1195737345243693</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>128</v>
+      </c>
+      <c r="B112" t="s">
+        <v>63</v>
+      </c>
+      <c r="C112">
+        <v>820</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="F112" t="s">
+        <v>94</v>
+      </c>
+      <c r="G112" s="6">
+        <f t="shared" ref="G112" si="6">$C$85/C112</f>
+        <v>0.98780487804878048</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>256</v>
+      </c>
+      <c r="B113" t="s">
+        <v>63</v>
+      </c>
+      <c r="C113">
+        <v>6411</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="F113" t="s">
+        <v>94</v>
+      </c>
+      <c r="G113" s="6">
+        <f t="shared" ref="G113" si="7">$C$86/C113</f>
+        <v>1.1143347371704881</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>128</v>
+      </c>
+      <c r="B114" t="s">
+        <v>63</v>
+      </c>
+      <c r="C114">
+        <v>818</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="F114" t="s">
+        <v>94</v>
+      </c>
+      <c r="G114" s="6">
+        <f t="shared" ref="G114" si="8">$C$85/C114</f>
+        <v>0.99022004889975546</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>256</v>
+      </c>
+      <c r="B115" t="s">
+        <v>63</v>
+      </c>
+      <c r="C115">
+        <v>6425</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="F115" t="s">
+        <v>94</v>
+      </c>
+      <c r="G115" s="6">
+        <f t="shared" ref="G115" si="9">$C$86/C115</f>
         <v>1.1119066147859922</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>0</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B118" t="s">
         <v>29</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C118" t="s">
         <v>2</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D118" t="s">
         <v>30</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E118" t="s">
         <v>81</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F118" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>80</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B119" t="s">
         <v>37</v>
       </c>
-      <c r="C114">
+      <c r="C119">
         <v>2</v>
       </c>
-      <c r="E114" s="3">
+      <c r="E119" s="3">
         <v>0.12</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F119" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>36</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B120" t="s">
         <v>37</v>
       </c>
-      <c r="C115">
+      <c r="C120">
         <v>9</v>
       </c>
-      <c r="E115" s="3">
+      <c r="E120" s="3">
         <v>0.12</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F120" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>11</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B121" t="s">
         <v>37</v>
       </c>
-      <c r="C116">
+      <c r="C121">
         <v>79</v>
       </c>
-      <c r="E116" s="3">
+      <c r="E121" s="3">
         <v>0.12</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F121" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
